--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tgfb3-Tgfbr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tgfb3-Tgfbr3.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.987640333333333</v>
+        <v>2.269101333333333</v>
       </c>
       <c r="H2">
-        <v>5.962921</v>
+        <v>6.807304</v>
       </c>
       <c r="I2">
-        <v>0.02781748198377821</v>
+        <v>0.02891211995713196</v>
       </c>
       <c r="J2">
-        <v>0.0278174819837782</v>
+        <v>0.02891211995713196</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.68145933333333</v>
+        <v>28.689524</v>
       </c>
       <c r="N2">
-        <v>71.04437799999999</v>
+        <v>86.06857199999999</v>
       </c>
       <c r="O2">
-        <v>0.2340556429375698</v>
+        <v>0.2394085694101769</v>
       </c>
       <c r="P2">
-        <v>0.2340556429375698</v>
+        <v>0.2394085694101769</v>
       </c>
       <c r="Q2">
-        <v>47.07022372312644</v>
+        <v>65.09943716109866</v>
       </c>
       <c r="R2">
-        <v>423.632013508138</v>
+        <v>585.894934449888</v>
       </c>
       <c r="S2">
-        <v>0.006510838630617473</v>
+        <v>0.006921809277552388</v>
       </c>
       <c r="T2">
-        <v>0.006510838630617472</v>
+        <v>0.006921809277552388</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.987640333333333</v>
+        <v>2.269101333333333</v>
       </c>
       <c r="H3">
-        <v>5.962921</v>
+        <v>6.807304</v>
       </c>
       <c r="I3">
-        <v>0.02781748198377821</v>
+        <v>0.02891211995713196</v>
       </c>
       <c r="J3">
-        <v>0.0278174819837782</v>
+        <v>0.02891211995713196</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>187.398952</v>
       </c>
       <c r="O3">
-        <v>0.6173856880862099</v>
+        <v>0.5212694246546397</v>
       </c>
       <c r="P3">
-        <v>0.6173856880862099</v>
+        <v>0.5212694246546395</v>
       </c>
       <c r="Q3">
-        <v>124.1605718065324</v>
+        <v>141.7424039494898</v>
       </c>
       <c r="R3">
-        <v>1117.445146258792</v>
+        <v>1275.681635545408</v>
       </c>
       <c r="S3">
-        <v>0.01717411525538065</v>
+        <v>0.0150710041356001</v>
       </c>
       <c r="T3">
-        <v>0.01717411525538065</v>
+        <v>0.0150710041356001</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.987640333333333</v>
+        <v>2.269101333333333</v>
       </c>
       <c r="H4">
-        <v>5.962921</v>
+        <v>6.807304</v>
       </c>
       <c r="I4">
-        <v>0.02781748198377821</v>
+        <v>0.02891211995713196</v>
       </c>
       <c r="J4">
-        <v>0.0278174819837782</v>
+        <v>0.02891211995713196</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.948048</v>
+        <v>28.525746</v>
       </c>
       <c r="N4">
-        <v>44.844144</v>
+        <v>85.57723799999999</v>
       </c>
       <c r="O4">
-        <v>0.1477389942931862</v>
+        <v>0.2380418734454457</v>
       </c>
       <c r="P4">
-        <v>0.1477389942931862</v>
+        <v>0.2380418734454457</v>
       </c>
       <c r="Q4">
-        <v>29.71134310940267</v>
+        <v>64.727808282928</v>
       </c>
       <c r="R4">
-        <v>267.402087984624</v>
+        <v>582.5502745463519</v>
       </c>
       <c r="S4">
-        <v>0.004109726812052219</v>
+        <v>0.006882295199875151</v>
       </c>
       <c r="T4">
-        <v>0.004109726812052218</v>
+        <v>0.00688229519987515</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.987640333333333</v>
+        <v>2.269101333333333</v>
       </c>
       <c r="H5">
-        <v>5.962921</v>
+        <v>6.807304</v>
       </c>
       <c r="I5">
-        <v>0.02781748198377821</v>
+        <v>0.02891211995713196</v>
       </c>
       <c r="J5">
-        <v>0.0278174819837782</v>
+        <v>0.02891211995713196</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.08293366666666667</v>
+        <v>0.1534046666666667</v>
       </c>
       <c r="N5">
-        <v>0.248801</v>
+        <v>0.460214</v>
       </c>
       <c r="O5">
-        <v>0.0008196746830341778</v>
+        <v>0.001280132489737778</v>
       </c>
       <c r="P5">
-        <v>0.0008196746830341778</v>
+        <v>0.001280132489737778</v>
       </c>
       <c r="Q5">
-        <v>0.1648423008578889</v>
+        <v>0.3480907336728889</v>
       </c>
       <c r="R5">
-        <v>1.483580707721</v>
+        <v>3.132816603056</v>
       </c>
       <c r="S5">
-        <v>2.280128572786235E-05</v>
+        <v>3.701134410432062E-05</v>
       </c>
       <c r="T5">
-        <v>2.280128572786235E-05</v>
+        <v>3.701134410432062E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>170.440021</v>
       </c>
       <c r="I6">
-        <v>0.7951157181995669</v>
+        <v>0.7238963226334669</v>
       </c>
       <c r="J6">
-        <v>0.7951157181995667</v>
+        <v>0.7238963226334669</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.68145933333333</v>
+        <v>28.689524</v>
       </c>
       <c r="N6">
-        <v>71.04437799999999</v>
+        <v>86.06857199999999</v>
       </c>
       <c r="O6">
-        <v>0.2340556429375698</v>
+        <v>0.2394085694101769</v>
       </c>
       <c r="P6">
-        <v>0.2340556429375698</v>
+        <v>0.2394085694101769</v>
       </c>
       <c r="Q6">
-        <v>1345.42280869466</v>
+        <v>1629.947691013334</v>
       </c>
       <c r="R6">
-        <v>12108.80527825194</v>
+        <v>14669.52921912001</v>
       </c>
       <c r="S6">
-        <v>0.1861013206329672</v>
+        <v>0.1733069830029662</v>
       </c>
       <c r="T6">
-        <v>0.1861013206329672</v>
+        <v>0.1733069830029662</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>170.440021</v>
       </c>
       <c r="I7">
-        <v>0.7951157181995669</v>
+        <v>0.7238963226334669</v>
       </c>
       <c r="J7">
-        <v>0.7951157181995667</v>
+        <v>0.7238963226334669</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>187.398952</v>
       </c>
       <c r="O7">
-        <v>0.6173856880862099</v>
+        <v>0.5212694246546397</v>
       </c>
       <c r="P7">
-        <v>0.6173856880862099</v>
+        <v>0.5212694246546395</v>
       </c>
       <c r="Q7">
         <v>3548.920146028666</v>
@@ -883,10 +883,10 @@
         <v>31940.28131425799</v>
       </c>
       <c r="S7">
-        <v>0.4908930647888006</v>
+        <v>0.3773450196087567</v>
       </c>
       <c r="T7">
-        <v>0.4908930647888005</v>
+        <v>0.3773450196087566</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>170.440021</v>
       </c>
       <c r="I8">
-        <v>0.7951157181995669</v>
+        <v>0.7238963226334669</v>
       </c>
       <c r="J8">
-        <v>0.7951157181995667</v>
+        <v>0.7238963226334669</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.948048</v>
+        <v>28.525746</v>
       </c>
       <c r="N8">
-        <v>44.844144</v>
+        <v>85.57723799999999</v>
       </c>
       <c r="O8">
-        <v>0.1477389942931862</v>
+        <v>0.2380418734454457</v>
       </c>
       <c r="P8">
-        <v>0.1477389942931862</v>
+        <v>0.2380418734454457</v>
       </c>
       <c r="Q8">
-        <v>849.2485383430027</v>
+        <v>1620.642915760222</v>
       </c>
       <c r="R8">
-        <v>7643.236845087024</v>
+        <v>14585.786241842</v>
       </c>
       <c r="S8">
-        <v>0.1174695965535085</v>
+        <v>0.1723176368199393</v>
       </c>
       <c r="T8">
-        <v>0.1174695965535084</v>
+        <v>0.1723176368199393</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>170.440021</v>
       </c>
       <c r="I9">
-        <v>0.7951157181995669</v>
+        <v>0.7238963226334669</v>
       </c>
       <c r="J9">
-        <v>0.7951157181995667</v>
+        <v>0.7238963226334669</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.08293366666666667</v>
+        <v>0.1534046666666667</v>
       </c>
       <c r="N9">
-        <v>0.248801</v>
+        <v>0.460214</v>
       </c>
       <c r="O9">
-        <v>0.0008196746830341778</v>
+        <v>0.001280132489737778</v>
       </c>
       <c r="P9">
-        <v>0.0008196746830341778</v>
+        <v>0.001280132489737778</v>
       </c>
       <c r="Q9">
-        <v>4.711738629424556</v>
+        <v>8.715431536054888</v>
       </c>
       <c r="R9">
-        <v>42.405647664821</v>
+        <v>78.438883824494</v>
       </c>
       <c r="S9">
-        <v>0.0006517362242907227</v>
+        <v>0.0009266832018048016</v>
       </c>
       <c r="T9">
-        <v>0.0006517362242907225</v>
+        <v>0.0009266832018048016</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.90182033333333</v>
+        <v>18.57257166666666</v>
       </c>
       <c r="H10">
-        <v>35.705461</v>
+        <v>55.717715</v>
       </c>
       <c r="I10">
-        <v>0.166568703172488</v>
+        <v>0.2366454120188096</v>
       </c>
       <c r="J10">
-        <v>0.166568703172488</v>
+        <v>0.2366454120188096</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.68145933333333</v>
+        <v>28.689524</v>
       </c>
       <c r="N10">
-        <v>71.04437799999999</v>
+        <v>86.06857199999999</v>
       </c>
       <c r="O10">
-        <v>0.2340556429375698</v>
+        <v>0.2394085694101769</v>
       </c>
       <c r="P10">
-        <v>0.2340556429375698</v>
+        <v>0.2394085694101769</v>
       </c>
       <c r="Q10">
-        <v>281.8524742164731</v>
+        <v>532.8382405725532</v>
       </c>
       <c r="R10">
-        <v>2536.672267948258</v>
+        <v>4795.544165152979</v>
       </c>
       <c r="S10">
-        <v>0.0389863449143139</v>
+        <v>0.05665493954890509</v>
       </c>
       <c r="T10">
-        <v>0.0389863449143139</v>
+        <v>0.0566549395489051</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>11.90182033333333</v>
+        <v>18.57257166666666</v>
       </c>
       <c r="H11">
-        <v>35.705461</v>
+        <v>55.717715</v>
       </c>
       <c r="I11">
-        <v>0.166568703172488</v>
+        <v>0.2366454120188096</v>
       </c>
       <c r="J11">
-        <v>0.166568703172488</v>
+        <v>0.2366454120188096</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>187.398952</v>
       </c>
       <c r="O11">
-        <v>0.6173856880862099</v>
+        <v>0.5212694246546397</v>
       </c>
       <c r="P11">
-        <v>0.6173856880862099</v>
+        <v>0.5212694246546395</v>
       </c>
       <c r="Q11">
-        <v>743.4628857863191</v>
+        <v>1160.160155426076</v>
       </c>
       <c r="R11">
-        <v>6691.165972076872</v>
+        <v>10441.44139883468</v>
       </c>
       <c r="S11">
-        <v>0.1028371334217742</v>
+        <v>0.123356017770205</v>
       </c>
       <c r="T11">
-        <v>0.1028371334217741</v>
+        <v>0.123356017770205</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>11.90182033333333</v>
+        <v>18.57257166666666</v>
       </c>
       <c r="H12">
-        <v>35.705461</v>
+        <v>55.717715</v>
       </c>
       <c r="I12">
-        <v>0.166568703172488</v>
+        <v>0.2366454120188096</v>
       </c>
       <c r="J12">
-        <v>0.166568703172488</v>
+        <v>0.2366454120188096</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>14.948048</v>
+        <v>28.525746</v>
       </c>
       <c r="N12">
-        <v>44.844144</v>
+        <v>85.57723799999999</v>
       </c>
       <c r="O12">
-        <v>0.1477389942931862</v>
+        <v>0.2380418734454457</v>
       </c>
       <c r="P12">
-        <v>0.1477389942931862</v>
+        <v>0.2380418734454457</v>
       </c>
       <c r="Q12">
-        <v>177.9089816300427</v>
+        <v>529.7964619301299</v>
       </c>
       <c r="R12">
-        <v>1601.180834670384</v>
+        <v>4768.168157371169</v>
       </c>
       <c r="S12">
-        <v>0.02460869268742363</v>
+        <v>0.05633151721922683</v>
       </c>
       <c r="T12">
-        <v>0.02460869268742363</v>
+        <v>0.05633151721922683</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>11.90182033333333</v>
+        <v>18.57257166666666</v>
       </c>
       <c r="H13">
-        <v>35.705461</v>
+        <v>55.717715</v>
       </c>
       <c r="I13">
-        <v>0.166568703172488</v>
+        <v>0.2366454120188096</v>
       </c>
       <c r="J13">
-        <v>0.166568703172488</v>
+        <v>0.2366454120188096</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.08293366666666667</v>
+        <v>0.1534046666666667</v>
       </c>
       <c r="N13">
-        <v>0.248801</v>
+        <v>0.460214</v>
       </c>
       <c r="O13">
-        <v>0.0008196746830341778</v>
+        <v>0.001280132489737778</v>
       </c>
       <c r="P13">
-        <v>0.0008196746830341778</v>
+        <v>0.001280132489737778</v>
       </c>
       <c r="Q13">
-        <v>0.9870616002512222</v>
+        <v>2.849119165667777</v>
       </c>
       <c r="R13">
-        <v>8.883554402261</v>
+        <v>25.64207249101</v>
       </c>
       <c r="S13">
-        <v>0.0001365321489763231</v>
+        <v>0.0003029374804726609</v>
       </c>
       <c r="T13">
-        <v>0.0001365321489763231</v>
+        <v>0.0003029374804726609</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.7501196666666666</v>
+        <v>0.8276899999999999</v>
       </c>
       <c r="H14">
-        <v>2.250359</v>
+        <v>2.48307</v>
       </c>
       <c r="I14">
-        <v>0.01049809664416704</v>
+        <v>0.01054614539059158</v>
       </c>
       <c r="J14">
-        <v>0.01049809664416703</v>
+        <v>0.01054614539059158</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>23.68145933333333</v>
+        <v>28.689524</v>
       </c>
       <c r="N14">
-        <v>71.04437799999999</v>
+        <v>86.06857199999999</v>
       </c>
       <c r="O14">
-        <v>0.2340556429375698</v>
+        <v>0.2394085694101769</v>
       </c>
       <c r="P14">
-        <v>0.2340556429375698</v>
+        <v>0.2394085694101769</v>
       </c>
       <c r="Q14">
-        <v>17.76392838130022</v>
+        <v>23.74603211956</v>
       </c>
       <c r="R14">
-        <v>159.875355431702</v>
+        <v>213.7142890760399</v>
       </c>
       <c r="S14">
-        <v>0.00245713875967126</v>
+        <v>0.002524837580753262</v>
       </c>
       <c r="T14">
-        <v>0.002457138759671259</v>
+        <v>0.002524837580753262</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.7501196666666666</v>
+        <v>0.8276899999999999</v>
       </c>
       <c r="H15">
-        <v>2.250359</v>
+        <v>2.48307</v>
       </c>
       <c r="I15">
-        <v>0.01049809664416704</v>
+        <v>0.01054614539059158</v>
       </c>
       <c r="J15">
-        <v>0.01049809664416703</v>
+        <v>0.01054614539059158</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>187.398952</v>
       </c>
       <c r="O15">
-        <v>0.6173856880862099</v>
+        <v>0.5212694246546397</v>
       </c>
       <c r="P15">
-        <v>0.6173856880862099</v>
+        <v>0.5212694246546395</v>
       </c>
       <c r="Q15">
-        <v>46.85721313597422</v>
+        <v>51.70274619362667</v>
       </c>
       <c r="R15">
-        <v>421.714918223768</v>
+        <v>465.32471574264</v>
       </c>
       <c r="S15">
-        <v>0.006481374620254596</v>
+        <v>0.005497383140077854</v>
       </c>
       <c r="T15">
-        <v>0.006481374620254595</v>
+        <v>0.005497383140077853</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.7501196666666666</v>
+        <v>0.8276899999999999</v>
       </c>
       <c r="H16">
-        <v>2.250359</v>
+        <v>2.48307</v>
       </c>
       <c r="I16">
-        <v>0.01049809664416704</v>
+        <v>0.01054614539059158</v>
       </c>
       <c r="J16">
-        <v>0.01049809664416703</v>
+        <v>0.01054614539059158</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.948048</v>
+        <v>28.525746</v>
       </c>
       <c r="N16">
-        <v>44.844144</v>
+        <v>85.57723799999999</v>
       </c>
       <c r="O16">
-        <v>0.1477389942931862</v>
+        <v>0.2380418734454457</v>
       </c>
       <c r="P16">
-        <v>0.1477389942931862</v>
+        <v>0.2380418734454457</v>
       </c>
       <c r="Q16">
-        <v>11.21282478307733</v>
+        <v>23.61047470674</v>
       </c>
       <c r="R16">
-        <v>100.915423047696</v>
+        <v>212.4942723606599</v>
       </c>
       <c r="S16">
-        <v>0.001550978240201911</v>
+        <v>0.002510424206404472</v>
       </c>
       <c r="T16">
-        <v>0.001550978240201911</v>
+        <v>0.002510424206404472</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.7501196666666666</v>
+        <v>0.8276899999999999</v>
       </c>
       <c r="H17">
-        <v>2.250359</v>
+        <v>2.48307</v>
       </c>
       <c r="I17">
-        <v>0.01049809664416704</v>
+        <v>0.01054614539059158</v>
       </c>
       <c r="J17">
-        <v>0.01049809664416703</v>
+        <v>0.01054614539059158</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.08293366666666667</v>
+        <v>0.1534046666666667</v>
       </c>
       <c r="N17">
-        <v>0.248801</v>
+        <v>0.460214</v>
       </c>
       <c r="O17">
-        <v>0.0008196746830341778</v>
+        <v>0.001280132489737778</v>
       </c>
       <c r="P17">
-        <v>0.0008196746830341778</v>
+        <v>0.001280132489737778</v>
       </c>
       <c r="Q17">
-        <v>0.06221017439544444</v>
+        <v>0.1269715085533333</v>
       </c>
       <c r="R17">
-        <v>0.559891569559</v>
+        <v>1.14274357698</v>
       </c>
       <c r="S17">
-        <v>8.605024039269781E-06</v>
+        <v>1.350046335599459E-05</v>
       </c>
       <c r="T17">
-        <v>8.605024039269779E-06</v>
+        <v>1.350046335599459E-05</v>
       </c>
     </row>
   </sheetData>
